--- a/Risk_Register_BrunoArmas.xlsx
+++ b/Risk_Register_BrunoArmas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno Armas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno Armas\Documents\GitHub\BrunoArmas_RTOS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDF542D-B667-425D-A412-F23BBFB05CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6936078-B443-4C3D-8E99-338A9F6CC122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Item</t>
   </si>
@@ -69,16 +69,25 @@
     <t>Valid Modified Fibonacci values</t>
   </si>
   <si>
-    <t xml:space="preserve">Gaining a stong understanding of the project at the beginning. Using spring break to understanding the provided project 7. </t>
-  </si>
-  <si>
     <t>Not being able to navigate and produce a working LCD task because I did not complete project 7</t>
   </si>
   <si>
     <t xml:space="preserve">Physics task funciionality. A majority of the project is contingent on this task working. </t>
   </si>
   <si>
-    <t xml:space="preserve">Unit testing at every level of functionality, creating a flow chart for the task, and starting early. </t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Had a thorough converstation with Jon about the physics task as a whole and have more confidence in  being able to implementing the task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was not able to get provided lab 7 to work over break. I have since then fixed the include issue and I am exploring the issue. </t>
+  </si>
+  <si>
+    <t>LED Task</t>
+  </si>
+  <si>
+    <t>This might be a simple task that I might complicate. I will make sure this doesn’t derail progress by leaving it last since it doesn’t inhibit game play functionality</t>
   </si>
 </sst>
 </file>
@@ -260,6 +269,9 @@
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -273,6 +285,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1491,7 +1506,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1537,7 +1552,7 @@
     </row>
     <row r="2" spans="1:10" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>20</v>
@@ -1559,43 +1574,62 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
-        <v>560</v>
+        <v>320</v>
       </c>
       <c r="E3" s="2">
         <v>45005</v>
       </c>
       <c r="F3" s="2">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>70</v>
+      </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45020</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45024</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="D5" s="1">

--- a/Risk_Register_BrunoArmas.xlsx
+++ b/Risk_Register_BrunoArmas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno Armas\Documents\GitHub\BrunoArmas_RTOS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6936078-B443-4C3D-8E99-338A9F6CC122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047EB2F7-EEEE-4648-90E2-99B59E2923B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Item</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>This might be a simple task that I might complicate. I will make sure this doesn’t derail progress by leaving it last since it doesn’t inhibit game play functionality</t>
+  </si>
+  <si>
+    <t>Not Being able to attend office hours</t>
+  </si>
+  <si>
+    <t>I have class during Will's office hours and I think it makes it difficult to get hands one help throughout the week. I try to resolve this by looking to see similar problems are solved on slack and Jon's availability before class</t>
   </si>
 </sst>
 </file>
@@ -272,6 +278,9 @@
                 <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -289,6 +298,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,19 +1637,38 @@
         <v>45024</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40</v>
+      </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>2800</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45029</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45030</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="D6" s="1">

--- a/Risk_Register_BrunoArmas.xlsx
+++ b/Risk_Register_BrunoArmas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno Armas\Documents\GitHub\BrunoArmas_RTOS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047EB2F7-EEEE-4648-90E2-99B59E2923B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9892B6BE-1B4E-4DEE-B7B3-8E46312E5D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>Item</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Had a thorough converstation with Jon about the physics task as a whole and have more confidence in  being able to implementing the task</t>
   </si>
   <si>
-    <t xml:space="preserve">Was not able to get provided lab 7 to work over break. I have since then fixed the include issue and I am exploring the issue. </t>
-  </si>
-  <si>
     <t>LED Task</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>I have class during Will's office hours and I think it makes it difficult to get hands one help throughout the week. I try to resolve this by looking to see similar problems are solved on slack and Jon's availability before class</t>
+  </si>
+  <si>
+    <t>Was not able to get provided lab 7 to work over break. I have since then fixed the include issue and I am exploring the issue.  I am struggling getting the LCD task and physics task to connect</t>
   </si>
 </sst>
 </file>
@@ -270,7 +270,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1567,14 +1567,14 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
         <v>70</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D10" si="0">B2*C2</f>
-        <v>1400</v>
+        <v>4900</v>
       </c>
       <c r="E2" s="2">
         <v>45005</v>
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
@@ -1618,7 +1618,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>20</v>
@@ -1640,12 +1640,12 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>70</v>
@@ -1664,10 +1664,10 @@
         <v>45030</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
